--- a/documentos/bigChart/BigChartProjeto.xlsx
+++ b/documentos/bigChart/BigChartProjeto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="9940" windowHeight="6820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="13300"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -262,7 +262,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -431,11 +431,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="537731384"/>
-        <c:axId val="537734760"/>
+        <c:axId val="499882632"/>
+        <c:axId val="500232184"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="537731384"/>
+        <c:axId val="499882632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -453,7 +453,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537734760"/>
+        <c:crossAx val="500232184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -464,7 +464,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="537734760"/>
+        <c:axId val="500232184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -483,7 +483,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537731384"/>
+        <c:crossAx val="499882632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -840,7 +840,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12"/>
@@ -878,10 +878,10 @@
         <v>40443</v>
       </c>
       <c r="B2" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" s="4">
         <v>5</v>
@@ -947,6 +947,7 @@
       <c r="F8" s="4"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
   <headerFooter alignWithMargins="0"/>
@@ -967,6 +968,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12"/>
   <sheetData/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
   <headerFooter alignWithMargins="0"/>
@@ -986,6 +988,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12"/>
   <sheetData/>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
   <headerFooter alignWithMargins="0"/>

--- a/documentos/bigChart/BigChartProjeto.xlsx
+++ b/documentos/bigChart/BigChartProjeto.xlsx
@@ -2,16 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25440" windowHeight="13300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Data</t>
   </si>
@@ -41,12 +41,15 @@
     <t>Páginas GSP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>Controladoras</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -64,6 +67,11 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -101,6 +109,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -112,8 +123,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -155,25 +165,28 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>dd.mm.yy</c:formatCode>
+                <c:formatCode>d/m/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>40443.0</c:v>
+                  <c:v>40429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40457.0</c:v>
+                  <c:v>40443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40471.0</c:v>
+                  <c:v>40457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40485.0</c:v>
+                  <c:v>40471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40499.0</c:v>
+                  <c:v>40485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40513.0</c:v>
+                  <c:v>40499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -185,7 +198,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -232,25 +248,28 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>dd.mm.yy</c:formatCode>
+                <c:formatCode>d/m/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>40443.0</c:v>
+                  <c:v>40429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40457.0</c:v>
+                  <c:v>40443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40471.0</c:v>
+                  <c:v>40457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40485.0</c:v>
+                  <c:v>40471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40499.0</c:v>
+                  <c:v>40485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40513.0</c:v>
+                  <c:v>40499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -262,7 +281,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -286,25 +308,28 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>dd.mm.yy</c:formatCode>
+                <c:formatCode>d/m/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>40443.0</c:v>
+                  <c:v>40429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40457.0</c:v>
+                  <c:v>40443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40471.0</c:v>
+                  <c:v>40457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40485.0</c:v>
+                  <c:v>40471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40499.0</c:v>
+                  <c:v>40485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40513.0</c:v>
+                  <c:v>40499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -316,7 +341,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -340,25 +368,28 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>dd.mm.yy</c:formatCode>
+                <c:formatCode>d/m/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>40443.0</c:v>
+                  <c:v>40429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40457.0</c:v>
+                  <c:v>40443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40471.0</c:v>
+                  <c:v>40457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40485.0</c:v>
+                  <c:v>40471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40499.0</c:v>
+                  <c:v>40485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40513.0</c:v>
+                  <c:v>40499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -370,7 +401,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>15.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -394,25 +428,28 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>dd.mm.yy</c:formatCode>
+                <c:formatCode>d/m/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>40443.0</c:v>
+                  <c:v>40429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40457.0</c:v>
+                  <c:v>40443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40471.0</c:v>
+                  <c:v>40457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40485.0</c:v>
+                  <c:v>40471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40499.0</c:v>
+                  <c:v>40485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40513.0</c:v>
+                  <c:v>40499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -424,18 +461,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.0</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Controladoras</c:v>
+          </c:tx>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="499882632"/>
-        <c:axId val="500232184"/>
+        <c:axId val="55630464"/>
+        <c:axId val="55512064"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="499882632"/>
+        <c:axId val="55630464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -450,21 +512,21 @@
             <a:pPr>
               <a:defRPr lang="pt-BR"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="500232184"/>
+        <c:crossAx val="55512064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="14.0"/>
+        <c:majorUnit val="14"/>
         <c:majorTimeUnit val="days"/>
-        <c:minorUnit val="7.0"/>
+        <c:minorUnit val="7"/>
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="500232184"/>
+        <c:axId val="55512064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -480,10 +542,10 @@
             <a:pPr>
               <a:defRPr lang="pt-BR"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="499882632"/>
+        <c:crossAx val="55630464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -499,7 +561,7 @@
             <a:pPr rtl="0">
               <a:defRPr lang="pt-BR"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -509,7 +571,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.984251969" l="0.787401575" r="0.787401575" t="0.984251969" header="0.492125985" footer="0.492125985"/>
+    <c:pageMargins b="0.98425196899999989" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999989" header="0.4921259850000001" footer="0.4921259850000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -836,24 +898,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1">
+    <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -872,35 +935,59 @@
       <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1">
+    <row r="2" spans="1:7" s="2" customFormat="1">
       <c r="A2" s="3">
+        <v>40429</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1">
+      <c r="A3" s="3">
         <v>40443</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D3" s="4">
         <v>5</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E3" s="4">
         <v>15</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F3" s="4">
         <v>5</v>
       </c>
+      <c r="G3" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" s="4" customFormat="1">
-      <c r="A3" s="3">
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
         <v>40457</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3">
-        <v>40471</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -908,9 +995,9 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
-        <v>40485</v>
+        <v>40471</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -918,9 +1005,9 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
-        <v>40499</v>
+        <v>40485</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -928,9 +1015,9 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
-        <v>40513</v>
+        <v>40499</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -938,8 +1025,10 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>40513</v>
+      </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -947,11 +1036,11 @@
       <c r="F8" s="4"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -961,14 +1050,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
   <headerFooter alignWithMargins="0"/>
@@ -981,14 +1069,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
   <headerFooter alignWithMargins="0"/>

--- a/documentos/bigChart/BigChartProjeto.xlsx
+++ b/documentos/bigChart/BigChartProjeto.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="11640"/>
   </bookViews>
@@ -71,7 +71,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +122,8 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
+  <c:style val="2"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -165,28 +165,28 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:formatCode>dd.mm.yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>40429</c:v>
+                  <c:v>40429.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40443</c:v>
+                  <c:v>40443.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40457</c:v>
+                  <c:v>40457.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40471</c:v>
+                  <c:v>40471.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40485</c:v>
+                  <c:v>40485.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40499</c:v>
+                  <c:v>40499.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40513</c:v>
+                  <c:v>40513.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -198,10 +198,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -248,28 +251,28 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:formatCode>dd.mm.yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>40429</c:v>
+                  <c:v>40429.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40443</c:v>
+                  <c:v>40443.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40457</c:v>
+                  <c:v>40457.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40471</c:v>
+                  <c:v>40471.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40485</c:v>
+                  <c:v>40485.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40499</c:v>
+                  <c:v>40499.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40513</c:v>
+                  <c:v>40513.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -281,10 +284,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -308,28 +314,28 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:formatCode>dd.mm.yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>40429</c:v>
+                  <c:v>40429.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40443</c:v>
+                  <c:v>40443.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40457</c:v>
+                  <c:v>40457.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40471</c:v>
+                  <c:v>40471.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40485</c:v>
+                  <c:v>40485.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40499</c:v>
+                  <c:v>40499.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40513</c:v>
+                  <c:v>40513.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -341,10 +347,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -368,28 +377,28 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:formatCode>dd.mm.yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>40429</c:v>
+                  <c:v>40429.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40443</c:v>
+                  <c:v>40443.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40457</c:v>
+                  <c:v>40457.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40471</c:v>
+                  <c:v>40471.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40485</c:v>
+                  <c:v>40485.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40499</c:v>
+                  <c:v>40499.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40513</c:v>
+                  <c:v>40513.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -401,10 +410,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,28 +440,28 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:formatCode>dd.mm.yy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>40429</c:v>
+                  <c:v>40429.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40443</c:v>
+                  <c:v>40443.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40457</c:v>
+                  <c:v>40457.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40471</c:v>
+                  <c:v>40471.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40485</c:v>
+                  <c:v>40485.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40499</c:v>
+                  <c:v>40499.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40513</c:v>
+                  <c:v>40513.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -461,10 +473,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -483,21 +498,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="55630464"/>
-        <c:axId val="55512064"/>
+        <c:axId val="506123480"/>
+        <c:axId val="506127080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="55630464"/>
+        <c:axId val="506123480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -512,21 +530,21 @@
             <a:pPr>
               <a:defRPr lang="pt-BR"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55512064"/>
+        <c:crossAx val="506127080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="14"/>
+        <c:majorUnit val="14.0"/>
         <c:majorTimeUnit val="days"/>
-        <c:minorUnit val="7"/>
+        <c:minorUnit val="7.0"/>
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="55512064"/>
+        <c:axId val="506127080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -542,10 +560,10 @@
             <a:pPr>
               <a:defRPr lang="pt-BR"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55630464"/>
+        <c:crossAx val="506123480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -561,7 +579,7 @@
             <a:pPr rtl="0">
               <a:defRPr lang="pt-BR"/>
             </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -571,7 +589,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999989" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999989" header="0.4921259850000001" footer="0.4921259850000001"/>
+    <c:pageMargins b="0.984251969" l="0.787401575" r="0.787401575" t="0.984251969" header="0.492125985" footer="0.492125985"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -898,22 +916,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1">
@@ -989,11 +1007,24 @@
       <c r="A4" s="3">
         <v>40457</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
@@ -1038,9 +1069,8 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1050,12 +1080,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
@@ -1069,12 +1099,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>

--- a/documentos/bigChart/BigChartProjeto.xlsx
+++ b/documentos/bigChart/BigChartProjeto.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr autoCompressPictures="0"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="11640"/>
   </bookViews>
@@ -122,8 +122,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="2"/>
+  <c:lang val="pt-BR"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -165,28 +164,28 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>dd.mm.yy</c:formatCode>
+                <c:formatCode>d/m/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>40429.0</c:v>
+                  <c:v>40429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40443.0</c:v>
+                  <c:v>40443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40457.0</c:v>
+                  <c:v>40457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40471.0</c:v>
+                  <c:v>40471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40485.0</c:v>
+                  <c:v>40485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40499.0</c:v>
+                  <c:v>40499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40513.0</c:v>
+                  <c:v>40513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -198,13 +197,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -251,28 +250,28 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>dd.mm.yy</c:formatCode>
+                <c:formatCode>d/m/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>40429.0</c:v>
+                  <c:v>40429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40443.0</c:v>
+                  <c:v>40443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40457.0</c:v>
+                  <c:v>40457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40471.0</c:v>
+                  <c:v>40471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40485.0</c:v>
+                  <c:v>40485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40499.0</c:v>
+                  <c:v>40499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40513.0</c:v>
+                  <c:v>40513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -284,13 +283,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -314,28 +313,28 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>dd.mm.yy</c:formatCode>
+                <c:formatCode>d/m/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>40429.0</c:v>
+                  <c:v>40429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40443.0</c:v>
+                  <c:v>40443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40457.0</c:v>
+                  <c:v>40457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40471.0</c:v>
+                  <c:v>40471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40485.0</c:v>
+                  <c:v>40485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40499.0</c:v>
+                  <c:v>40499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40513.0</c:v>
+                  <c:v>40513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -347,13 +346,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -377,28 +376,28 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>dd.mm.yy</c:formatCode>
+                <c:formatCode>d/m/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>40429.0</c:v>
+                  <c:v>40429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40443.0</c:v>
+                  <c:v>40443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40457.0</c:v>
+                  <c:v>40457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40471.0</c:v>
+                  <c:v>40471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40485.0</c:v>
+                  <c:v>40485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40499.0</c:v>
+                  <c:v>40499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40513.0</c:v>
+                  <c:v>40513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -410,13 +409,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -440,28 +439,28 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>dd.mm.yy</c:formatCode>
+                <c:formatCode>d/m/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>40429.0</c:v>
+                  <c:v>40429</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40443.0</c:v>
+                  <c:v>40443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40457.0</c:v>
+                  <c:v>40457</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40471.0</c:v>
+                  <c:v>40471</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40485.0</c:v>
+                  <c:v>40485</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40499.0</c:v>
+                  <c:v>40499</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40513.0</c:v>
+                  <c:v>40513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,13 +472,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -498,24 +497,24 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="506123480"/>
-        <c:axId val="506127080"/>
+        <c:axId val="55511296"/>
+        <c:axId val="55521280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="506123480"/>
+        <c:axId val="55511296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,21 +529,21 @@
             <a:pPr>
               <a:defRPr lang="pt-BR"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506127080"/>
+        <c:crossAx val="55521280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="14.0"/>
+        <c:majorUnit val="14"/>
         <c:majorTimeUnit val="days"/>
-        <c:minorUnit val="7.0"/>
+        <c:minorUnit val="7"/>
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="506127080"/>
+        <c:axId val="55521280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -560,10 +559,10 @@
             <a:pPr>
               <a:defRPr lang="pt-BR"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="506123480"/>
+        <c:crossAx val="55511296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -579,7 +578,7 @@
             <a:pPr rtl="0">
               <a:defRPr lang="pt-BR"/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
       </c:dTable>
@@ -589,7 +588,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.984251969" l="0.787401575" r="0.787401575" t="0.984251969" header="0.492125985" footer="0.492125985"/>
+    <c:pageMargins b="0.98425196899999989" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999989" header="0.4921259850000001" footer="0.4921259850000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -916,22 +915,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1">
@@ -1014,7 +1013,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4">
         <v>27</v>
@@ -1080,12 +1079,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
@@ -1099,12 +1098,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>

--- a/documentos/bigChart/BigChartProjeto.xlsx
+++ b/documentos/bigChart/BigChartProjeto.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="11640"/>
@@ -48,8 +48,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -117,12 +117,27 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -141,11 +156,14 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -164,7 +182,7 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>40429</c:v>
@@ -205,9 +223,13 @@
                 <c:pt idx="2">
                   <c:v>7</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -250,7 +272,7 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>40429</c:v>
@@ -291,9 +313,13 @@
                 <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -313,7 +339,7 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>40429</c:v>
@@ -354,9 +380,13 @@
                 <c:pt idx="2">
                   <c:v>13</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -376,7 +406,7 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>40429</c:v>
@@ -417,9 +447,13 @@
                 <c:pt idx="2">
                   <c:v>27</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -439,7 +473,7 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>40429</c:v>
@@ -480,9 +514,13 @@
                 <c:pt idx="2">
                   <c:v>7</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -505,22 +543,37 @@
                 <c:pt idx="2">
                   <c:v>7</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="55511296"/>
-        <c:axId val="55521280"/>
+        <c:smooth val="0"/>
+        <c:axId val="86526592"/>
+        <c:axId val="86540672"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="55511296"/>
+        <c:axId val="86526592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\/mm\/yyyy" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-5400000" vert="horz"/>
@@ -532,7 +585,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55521280"/>
+        <c:crossAx val="86540672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -543,14 +596,16 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="55521280"/>
+        <c:axId val="86540672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="0" vert="horz"/>
@@ -562,7 +617,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55511296"/>
+        <c:crossAx val="86526592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -585,6 +640,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
@@ -706,6 +762,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -740,6 +797,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -915,14 +973,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -933,7 +991,7 @@
     <col min="7" max="7" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -956,7 +1014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>40429</v>
       </c>
@@ -979,7 +1037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1">
+    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>40443</v>
       </c>
@@ -1002,7 +1060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>40457</v>
       </c>
@@ -1025,17 +1083,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>40471</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4">
+        <v>40</v>
+      </c>
+      <c r="F5" s="4">
+        <v>10</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>40485</v>
       </c>
@@ -1045,7 +1116,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>40499</v>
       </c>
@@ -1055,7 +1126,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>40513</v>
       </c>
@@ -1079,12 +1150,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
@@ -1098,12 +1169,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>

--- a/documentos/bigChart/BigChartProjeto.xlsx
+++ b/documentos/bigChart/BigChartProjeto.xlsx
@@ -49,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -72,6 +72,12 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -93,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -111,6 +117,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -226,6 +233,9 @@
                 <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -316,6 +326,9 @@
                 <c:pt idx="3">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -383,6 +396,9 @@
                 <c:pt idx="3">
                   <c:v>37</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -450,6 +466,9 @@
                 <c:pt idx="3">
                   <c:v>40</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>63</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -516,6 +535,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -546,6 +568,9 @@
                 <c:pt idx="3">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -561,11 +586,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="86526592"/>
-        <c:axId val="86540672"/>
+        <c:axId val="80366208"/>
+        <c:axId val="80380288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="86526592"/>
+        <c:axId val="80366208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -585,7 +610,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86540672"/>
+        <c:crossAx val="80380288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -596,7 +621,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="86540672"/>
+        <c:axId val="80380288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -617,7 +642,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86526592"/>
+        <c:crossAx val="80366208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -977,7 +1002,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1110,11 +1135,24 @@
       <c r="A6" s="3">
         <v>40485</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="B6" s="4">
+        <v>17</v>
+      </c>
+      <c r="C6" s="4">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4">
+        <v>47</v>
+      </c>
+      <c r="E6" s="4">
+        <v>63</v>
+      </c>
+      <c r="F6" s="4">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
@@ -1125,6 +1163,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -1139,8 +1178,9 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/documentos/bigChart/BigChartProjeto.xlsx
+++ b/documentos/bigChart/BigChartProjeto.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14190" windowHeight="2370"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -48,8 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -134,17 +135,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -163,14 +154,11 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -189,7 +177,7 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>d/m/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>40429</c:v>
@@ -239,7 +227,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -282,7 +269,7 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>d/m/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>40429</c:v>
@@ -327,12 +314,11 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -352,7 +338,7 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>d/m/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>40429</c:v>
@@ -402,7 +388,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -422,7 +407,7 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>d/m/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>40429</c:v>
@@ -472,7 +457,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -492,7 +476,7 @@
             <c:numRef>
               <c:f>Plan1!$A$2:$A$8</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>d/m/yyyy</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>40429</c:v>
@@ -542,7 +526,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -574,31 +557,20 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="80366208"/>
-        <c:axId val="80380288"/>
+        <c:axId val="54279552"/>
+        <c:axId val="54285440"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80366208"/>
+        <c:axId val="54279552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\/mm\/yyyy" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="-5400000" vert="horz"/>
@@ -610,7 +582,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80380288"/>
+        <c:crossAx val="54285440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -621,16 +593,14 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80380288"/>
+        <c:axId val="54285440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:txPr>
           <a:bodyPr rot="0" vert="horz"/>
@@ -642,7 +612,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80366208"/>
+        <c:crossAx val="54279552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -665,11 +635,10 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999989" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999989" header="0.4921259850000001" footer="0.4921259850000001"/>
+    <c:pageMargins b="0.98425196899999978" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999978" header="0.49212598500000021" footer="0.49212598500000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -787,7 +756,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -822,7 +790,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -998,14 +965,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -1016,7 +983,7 @@
     <col min="7" max="7" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" s="2" customFormat="1">
       <c r="A2" s="3">
         <v>40429</v>
       </c>
@@ -1062,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" s="4" customFormat="1">
       <c r="A3" s="3">
         <v>40443</v>
       </c>
@@ -1085,7 +1052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>40457</v>
       </c>
@@ -1108,7 +1075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>40471</v>
       </c>
@@ -1131,7 +1098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>40485</v>
       </c>
@@ -1139,7 +1106,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4">
         <v>47</v>
@@ -1154,7 +1121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>40499</v>
       </c>
@@ -1165,7 +1132,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>40513</v>
       </c>
@@ -1190,12 +1157,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
@@ -1209,12 +1176,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>

--- a/documentos/bigChart/BigChartProjeto.xlsx
+++ b/documentos/bigChart/BigChartProjeto.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Data</t>
   </si>
@@ -44,6 +43,9 @@
   </si>
   <si>
     <t>Controladoras</t>
+  </si>
+  <si>
+    <t>Relatórios Jasper</t>
   </si>
 </sst>
 </file>
@@ -74,7 +76,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -100,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -118,7 +119,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,6 +230,9 @@
                 <c:pt idx="4">
                   <c:v>17</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -316,6 +325,9 @@
                 <c:pt idx="4">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -385,6 +397,9 @@
                 <c:pt idx="4">
                   <c:v>47</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>63</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -454,6 +469,9 @@
                 <c:pt idx="4">
                   <c:v>63</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>68</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -522,6 +540,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -554,17 +575,91 @@
                 <c:pt idx="4">
                   <c:v>15</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plan1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Relatórios Jasper</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plan1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>40429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40443</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40457</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40485</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Plan1!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:marker val="1"/>
-        <c:axId val="54279552"/>
-        <c:axId val="54285440"/>
+        <c:axId val="55850112"/>
+        <c:axId val="55851648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="54279552"/>
+        <c:axId val="55850112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -582,7 +677,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54285440"/>
+        <c:crossAx val="55851648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -593,7 +688,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="54285440"/>
+        <c:axId val="55851648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,7 +707,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54279552"/>
+        <c:crossAx val="55850112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -638,7 +733,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999978" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999978" header="0.49212598500000021" footer="0.49212598500000021"/>
+    <c:pageMargins b="0.98425196899999967" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999967" header="0.49212598500000032" footer="0.49212598500000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -966,10 +1061,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -981,9 +1076,10 @@
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1">
+    <row r="1" spans="1:8" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1005,8 +1101,11 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="3">
         <v>40429</v>
       </c>
@@ -1028,8 +1127,11 @@
       <c r="G2" s="6">
         <v>0</v>
       </c>
+      <c r="H2" s="8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1">
+    <row r="3" spans="1:8" s="4" customFormat="1">
       <c r="A3" s="3">
         <v>40443</v>
       </c>
@@ -1051,8 +1153,11 @@
       <c r="G3" s="4">
         <v>3</v>
       </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>40457</v>
       </c>
@@ -1074,8 +1179,11 @@
       <c r="G4" s="4">
         <v>7</v>
       </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>40471</v>
       </c>
@@ -1097,8 +1205,11 @@
       <c r="G5" s="4">
         <v>10</v>
       </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>40485</v>
       </c>
@@ -1120,19 +1231,37 @@
       <c r="G6" s="4">
         <v>15</v>
       </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>40499</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="7"/>
+      <c r="B7" s="4">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4">
+        <v>63</v>
+      </c>
+      <c r="E7" s="4">
+        <v>68</v>
+      </c>
+      <c r="F7" s="4">
+        <v>14</v>
+      </c>
+      <c r="G7" s="7">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>40513</v>
       </c>
@@ -1141,11 +1270,12 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.49212598499999999" footer="0.49212598499999999"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <extLst>

--- a/documentos/bigChart/BigChartProjeto.xlsx
+++ b/documentos/bigChart/BigChartProjeto.xlsx
@@ -233,6 +233,9 @@
                 <c:pt idx="5">
                   <c:v>17</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -328,6 +331,9 @@
                 <c:pt idx="5">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -400,6 +406,9 @@
                 <c:pt idx="5">
                   <c:v>63</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>67</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -472,6 +481,9 @@
                 <c:pt idx="5">
                   <c:v>68</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>68</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -543,6 +555,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -578,6 +593,9 @@
                 <c:pt idx="5">
                   <c:v>15</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -650,16 +668,19 @@
                 <c:pt idx="5">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="55850112"/>
-        <c:axId val="55851648"/>
+        <c:axId val="64028032"/>
+        <c:axId val="64300160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="55850112"/>
+        <c:axId val="64028032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -677,7 +698,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55851648"/>
+        <c:crossAx val="64300160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -688,7 +709,7 @@
         <c:minorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="55851648"/>
+        <c:axId val="64300160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -707,7 +728,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="55850112"/>
+        <c:crossAx val="64028032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -733,7 +754,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999967" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999967" header="0.49212598500000032" footer="0.49212598500000032"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000038" footer="0.49212598500000038"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1064,7 +1085,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -1265,12 +1286,27 @@
       <c r="A8" s="1">
         <v>40513</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="B8" s="4">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4">
+        <v>16</v>
+      </c>
+      <c r="D8" s="4">
+        <v>67</v>
+      </c>
+      <c r="E8" s="4">
+        <v>68</v>
+      </c>
+      <c r="F8" s="4">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4">
+        <v>15</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
